--- a/Descargas/R15_1º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
+++ b/Descargas/R15_1º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
@@ -807,7 +807,7 @@
     <row r="61">
       <c t="inlineStr" r="A61">
         <is>
-          <t xml:space="preserve">Obtención De Servicios Sexuales De Menores.</t>
+          <t xml:space="preserve">Obstruccion A La Investigación.</t>
         </is>
       </c>
       <c r="B61" s="65">
@@ -817,7 +817,7 @@
     <row r="62">
       <c t="inlineStr" r="A62">
         <is>
-          <t xml:space="preserve">Ocultacion De Ident En Control Invest Art 496 N05 Art 85 Cpp</t>
+          <t xml:space="preserve">Obtención De Servicios Sexuales De Menores.</t>
         </is>
       </c>
       <c r="B62" s="65">
@@ -827,37 +827,37 @@
     <row r="63">
       <c t="inlineStr" r="A63">
         <is>
-          <t xml:space="preserve">Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
+          <t xml:space="preserve">Ocultacion De Ident En Control Invest Art 496 N05 Art 85 Cpp</t>
         </is>
       </c>
       <c r="B63" s="65">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c t="inlineStr" r="A64">
         <is>
-          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
+          <t xml:space="preserve">Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
         </is>
       </c>
       <c r="B64" s="65">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
       <c t="inlineStr" r="A65">
         <is>
-          <t xml:space="preserve">Otras Infrac A La  Ordenanza  Aduanas. Ley 20.780</t>
+          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
         </is>
       </c>
       <c r="B65" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c t="inlineStr" r="A66">
         <is>
-          <t xml:space="preserve">Otros Delit. Contra Orden Y Seg. Public Comet Por Particul</t>
+          <t xml:space="preserve">Otras Infrac A La  Ordenanza  Aduanas. Ley 20.780</t>
         </is>
       </c>
       <c r="B66" s="65">
@@ -867,7 +867,7 @@
     <row r="67">
       <c t="inlineStr" r="A67">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
+          <t xml:space="preserve">Otros Delit. Contra Orden Y Seg. Public Comet Por Particul</t>
         </is>
       </c>
       <c r="B67" s="65">
@@ -877,7 +877,7 @@
     <row r="68">
       <c t="inlineStr" r="A68">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Propiedad</t>
+          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
         </is>
       </c>
       <c r="B68" s="65">
@@ -887,67 +887,67 @@
     <row r="69">
       <c t="inlineStr" r="A69">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra Ley De Propiedad Industrial.</t>
+          <t xml:space="preserve">Otros Delitos Contra La Propiedad</t>
         </is>
       </c>
       <c r="B69" s="65">
-        <v>154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c t="inlineStr" r="A70">
         <is>
-          <t xml:space="preserve">Otros Delitos De La Ley 20.000.</t>
+          <t xml:space="preserve">Otros Delitos Contra Ley De Propiedad Industrial.</t>
         </is>
       </c>
       <c r="B70" s="65">
-        <v>1</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71">
       <c t="inlineStr" r="A71">
         <is>
-          <t xml:space="preserve">Otros Delitos De La Ley De Control De Armas (Ley 17.798)</t>
+          <t xml:space="preserve">Otros Delitos De La Ley 20.000.</t>
         </is>
       </c>
       <c r="B71" s="65">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c t="inlineStr" r="A72">
         <is>
-          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
+          <t xml:space="preserve">Otros Delitos De La Ley De Control De Armas (Ley 17.798)</t>
         </is>
       </c>
       <c r="B72" s="65">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
       <c t="inlineStr" r="A73">
         <is>
-          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
+          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
         </is>
       </c>
       <c r="B73" s="65">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74">
       <c t="inlineStr" r="A74">
         <is>
-          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
+          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
         </is>
       </c>
       <c r="B74" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c t="inlineStr" r="A75">
         <is>
-          <t xml:space="preserve">Porte De Arma Prohibida (Art. 14 Inc. 1°)</t>
+          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
         </is>
       </c>
       <c r="B75" s="65">
@@ -957,97 +957,97 @@
     <row r="76">
       <c t="inlineStr" r="A76">
         <is>
-          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
+          <t xml:space="preserve">Porte De Arma Prohibida (Art. 14 Inc. 1°)</t>
         </is>
       </c>
       <c r="B76" s="65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c t="inlineStr" r="A77">
         <is>
-          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
+          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
         </is>
       </c>
       <c r="B77" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c t="inlineStr" r="A78">
         <is>
-          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
+          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
         </is>
       </c>
       <c r="B78" s="65">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c t="inlineStr" r="A79">
         <is>
-          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
+          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
         </is>
       </c>
       <c r="B79" s="65">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
       <c t="inlineStr" r="A80">
         <is>
-          <t xml:space="preserve">Presunta Desgracia.</t>
+          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
         </is>
       </c>
       <c r="B80" s="65">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81">
       <c t="inlineStr" r="A81">
         <is>
-          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
+          <t xml:space="preserve">Presunta Desgracia.</t>
         </is>
       </c>
       <c r="B81" s="65">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c t="inlineStr" r="A82">
         <is>
-          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
+          <t xml:space="preserve">Rec  Aduan Infrac. Orden. De Aduanas. Art. 182. Ley 20780</t>
         </is>
       </c>
       <c r="B82" s="65">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c t="inlineStr" r="A83">
         <is>
-          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
         </is>
       </c>
       <c r="B83" s="65">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c t="inlineStr" r="A84">
         <is>
-          <t xml:space="preserve">Robo Con Intimidacion.</t>
+          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
         </is>
       </c>
       <c r="B84" s="65">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
       <c t="inlineStr" r="A85">
         <is>
-          <t xml:space="preserve">Robo Con Violacion.</t>
+          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
         </is>
       </c>
       <c r="B85" s="65">
@@ -1057,17 +1057,17 @@
     <row r="86">
       <c t="inlineStr" r="A86">
         <is>
-          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+          <t xml:space="preserve">Robo Con Intimidacion.</t>
         </is>
       </c>
       <c r="B86" s="65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c t="inlineStr" r="A87">
         <is>
-          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
+          <t xml:space="preserve">Robo Con Violacion.</t>
         </is>
       </c>
       <c r="B87" s="65">
@@ -1077,110 +1077,130 @@
     <row r="88">
       <c t="inlineStr" r="A88">
         <is>
-          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
+          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
         </is>
       </c>
       <c r="B88" s="65">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c t="inlineStr" r="A89">
         <is>
-          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
+          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
         </is>
       </c>
       <c r="B89" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c t="inlineStr" r="A90">
         <is>
-          <t xml:space="preserve">Robo Por Sorpresa.</t>
+          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
         </is>
       </c>
       <c r="B90" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c t="inlineStr" r="A91">
         <is>
-          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
         </is>
       </c>
       <c r="B91" s="65">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c t="inlineStr" r="A92">
         <is>
-          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+          <t xml:space="preserve">Robo Por Sorpresa.</t>
         </is>
       </c>
       <c r="B92" s="65">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c t="inlineStr" r="A93">
         <is>
-          <t xml:space="preserve">Ultraje Publico Buenas Costumbres Por Medio Comunic. Social.</t>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
         </is>
       </c>
       <c r="B93" s="65">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
       <c t="inlineStr" r="A94">
         <is>
-          <t xml:space="preserve">Usurpacion De Nombre.</t>
+          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
         </is>
       </c>
       <c r="B94" s="65">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
       <c t="inlineStr" r="A95">
         <is>
-          <t xml:space="preserve">Violacion  De Morada.</t>
+          <t xml:space="preserve">Ultraje Publico Buenas Costumbres Por Medio Comunic. Social.</t>
         </is>
       </c>
       <c r="B95" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c t="inlineStr" r="A96">
         <is>
-          <t xml:space="preserve">Violacion De Menor De 14 Años.</t>
+          <t xml:space="preserve">Usurpacion De Nombre.</t>
         </is>
       </c>
       <c r="B96" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c t="inlineStr" r="A97">
         <is>
-          <t xml:space="preserve">Violacion De Secretos.</t>
+          <t xml:space="preserve">Violacion  De Morada.</t>
         </is>
       </c>
       <c r="B97" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
       <c t="inlineStr" r="A98">
         <is>
+          <t xml:space="preserve">Violacion De Menor De 14 Años.</t>
+        </is>
+      </c>
+      <c r="B98" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c t="inlineStr" r="A99">
+        <is>
+          <t xml:space="preserve">Violacion De Secretos.</t>
+        </is>
+      </c>
+      <c r="B99" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c t="inlineStr" r="A100">
+        <is>
           <t xml:space="preserve">Violación De Mayor De 14 Años.</t>
         </is>
       </c>
-      <c r="B98" s="65">
+      <c r="B100" s="65">
         <v>1</v>
       </c>
     </row>
